--- a/techniqo/data_new_ticker/POLYMED.xlsx
+++ b/techniqo/data_new_ticker/POLYMED.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1392"/>
+  <dimension ref="A1:G1394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49106,6 +49106,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>489.95</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>512.8</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>488.45</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>498.2</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>310452</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>502</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>519.3</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>480</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>491.65</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>511520</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/POLYMED.xlsx
+++ b/techniqo/data_new_ticker/POLYMED.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1394"/>
+  <dimension ref="A1:G1396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49156,6 +49156,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>492.4</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>499</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>481.1</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>485.2</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>161429</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1396" t="n">
+        <v>489</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>510</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>488</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>495.4</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>246421</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
